--- a/reports/figures/estadisticas_descriptivas.xlsx
+++ b/reports/figures/estadisticas_descriptivas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         <v>1969</v>
       </c>
       <c r="C2" t="n">
-        <v>30.75527244149398</v>
+        <v>30.75527251705171</v>
       </c>
       <c r="D2" t="n">
-        <v>8.555473785512312</v>
+        <v>8.555473758859856</v>
       </c>
       <c r="E2" t="n">
-        <v>16.81247901916504</v>
+        <v>16.81247711181641</v>
       </c>
       <c r="F2" t="n">
-        <v>25.71403121948243</v>
+        <v>25.71402931213379</v>
       </c>
       <c r="G2" t="n">
-        <v>28.1547679901123</v>
+        <v>28.15476608276367</v>
       </c>
       <c r="H2" t="n">
-        <v>32.45397186279297</v>
+        <v>32.4539680480957</v>
       </c>
       <c r="I2" t="n">
         <v>64.2852783203125</v>
@@ -516,22 +516,22 @@
         <v>1969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003363397975623266</v>
+        <v>0.0003363398560755858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01506870052074088</v>
+        <v>0.01506869706541206</v>
       </c>
       <c r="E3" t="n">
         <v>-0.1261096781949406</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0071916457112557</v>
+        <v>-0.0071917417138105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008101828722941</v>
+        <v>0.0008101180884132</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0082657544173203</v>
+        <v>0.0082656171363164</v>
       </c>
       <c r="I3" t="n">
         <v>0.0732919552592541</v>
@@ -547,25 +547,25 @@
         <v>1969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2133675253368158</v>
+        <v>0.2133674518504001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1027867815078565</v>
+        <v>0.1027868041537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0632574314018176</v>
+        <v>0.0632572038659809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1550319655701295</v>
+        <v>0.1550322840952611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1893921621393651</v>
+        <v>0.1893913876326807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2484674323672671</v>
+        <v>0.248467177325929</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9181690517268511</v>
+        <v>0.9181691160606468</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         <v>1969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00154482049768629</v>
+        <v>0.001544820556485429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03543646025020974</v>
+        <v>0.0354364579124135</v>
       </c>
       <c r="E5" t="n">
         <v>-0.270449429084691</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0167367998212304</v>
+        <v>-0.0167366389691778</v>
       </c>
       <c r="G5" t="n">
         <v>0.0027617921669151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0220881078532908</v>
+        <v>0.0220879080079572</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1242213320164937</v>
+        <v>0.1242212025739699</v>
       </c>
     </row>
     <row r="6">
@@ -733,25 +733,56 @@
         <v>1969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002050157440325038</v>
+        <v>0.1169974143452306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009097248786752199</v>
+        <v>0.2164391858659274</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.808629</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.012224</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.100141</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.265704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.403676</v>
+        <v>0.8230705</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>news_count</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.896394108684611</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.497062516286447</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
